--- a/Othes/Service Symphony.xlsx
+++ b/Othes/Service Symphony.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="20055" windowHeight="8460"/>
@@ -9,19 +9,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tulip-2</t>
   </si>
   <si>
-    <t>Service Phone List</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
@@ -44,13 +41,28 @@
   </si>
   <si>
     <t>Madrasha Market,  Bagha Bazar, Rajshahi</t>
+  </si>
+  <si>
+    <t>Phone Service List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Date : 24.04.19</t>
+  </si>
+  <si>
+    <t>Phone Ready By</t>
+  </si>
+  <si>
+    <t>Phone Received By</t>
+  </si>
+  <si>
+    <t>Imran Nazir (Kabir)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,17 +80,37 @@
     <font>
       <sz val="26"/>
       <color theme="1"/>
+      <name val="Bauhaus 93"/>
+      <family val="5"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -117,35 +149,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -155,6 +200,109 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1924050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="9515475"/>
+          <a:ext cx="2266950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2533650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8582025" y="9534525"/>
+          <a:ext cx="2266950" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,18 +590,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G30"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="1" max="1" width="6" style="1" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
@@ -463,353 +608,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="18.75">
-      <c r="A5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A6" s="10">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A7" s="10">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A8" s="10">
+        <v>3</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A9" s="10">
+        <v>4</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A10" s="10">
+        <v>5</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A11" s="10">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A12" s="10">
+        <v>7</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A13" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-    </row>
-    <row r="7" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A7" s="3">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A8" s="3">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A9" s="3">
-        <v>4</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A10" s="3">
-        <v>5</v>
-      </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A11" s="3">
-        <v>6</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A12" s="3">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A14" s="3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A14" s="10">
         <v>9</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A15" s="3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A15" s="10">
         <v>10</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A16" s="3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A16" s="10">
         <v>11</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A17" s="3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A17" s="10">
         <v>12</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A18" s="3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A18" s="10">
         <v>13</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A19" s="3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A19" s="10">
         <v>14</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A20" s="3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A20" s="10">
         <v>15</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A21" s="3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A21" s="10">
         <v>16</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A22" s="3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A22" s="10">
         <v>17</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A23" s="3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A23" s="10">
         <v>18</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A24" s="3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A24" s="10">
         <v>19</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-    </row>
-    <row r="25" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A25" s="3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="32.1" customHeight="1">
+      <c r="A25" s="10">
         <v>20</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-    </row>
-    <row r="26" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A26" s="3">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" ht="3" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A27" s="3">
-        <v>22</v>
-      </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+      <c r="A27" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="16" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A28" s="3">
-        <v>23</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A29" s="3">
-        <v>24</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="17"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="17"/>
     </row>
     <row r="30" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A30" s="3">
-        <v>25</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0.5" top="0" bottom="0.5" header="0" footer="0"/>
-  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Othes/Service Symphony.xlsx
+++ b/Othes/Service Symphony.xlsx
@@ -34,9 +34,6 @@
     <t>Receive Item</t>
   </si>
   <si>
-    <t>Imei No</t>
-  </si>
-  <si>
     <t>Problem Details</t>
   </si>
   <si>
@@ -46,16 +43,19 @@
     <t>Phone Service List</t>
   </si>
   <si>
-    <t xml:space="preserve">      Date : 24.04.19</t>
-  </si>
-  <si>
     <t>Phone Ready By</t>
   </si>
   <si>
     <t>Phone Received By</t>
   </si>
   <si>
-    <t>Imran Nazir (Kabir)</t>
+    <t xml:space="preserve">              Imran Nazir (Kabir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Date : 01.05.19</t>
+  </si>
+  <si>
+    <t>IMEI No</t>
   </si>
 </sst>
 </file>
@@ -149,22 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,19 +170,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -207,15 +214,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1924050</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1695450</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -224,8 +231,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="9515475"/>
-          <a:ext cx="2266950" cy="9525"/>
+          <a:off x="371475" y="10344150"/>
+          <a:ext cx="1724025" cy="9526"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -256,15 +263,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2533650</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>2381250</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -273,8 +280,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8582025" y="9534525"/>
-          <a:ext cx="2266950" cy="9525"/>
+          <a:off x="10458450" y="10372725"/>
+          <a:ext cx="1628775" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -593,374 +600,369 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="6" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" customHeight="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="33" customHeight="1">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="33" customHeight="1">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" ht="33" customHeight="1">
+      <c r="A8" s="6">
+        <v>3</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="33" customHeight="1">
+      <c r="A9" s="6">
+        <v>4</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="33" customHeight="1">
+      <c r="A10" s="6">
+        <v>5</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" customHeight="1">
+      <c r="A11" s="6">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" customHeight="1">
+      <c r="A12" s="6">
+        <v>7</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" spans="1:7" ht="33" customHeight="1">
+      <c r="A13" s="6">
+        <v>8</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="33" customHeight="1">
+      <c r="A14" s="6">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" customHeight="1">
+      <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="33" customHeight="1">
+      <c r="A16" s="6">
+        <v>11</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="33" customHeight="1">
+      <c r="A17" s="6">
+        <v>12</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="33" customHeight="1">
+      <c r="A18" s="6">
+        <v>13</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="33" customHeight="1">
+      <c r="A19" s="6">
+        <v>14</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="33" customHeight="1">
+      <c r="A20" s="6">
+        <v>15</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" customHeight="1">
+      <c r="A21" s="6">
+        <v>16</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="33" customHeight="1">
+      <c r="A22" s="6">
+        <v>17</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="33" customHeight="1">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="33" customHeight="1">
+      <c r="A24" s="6">
+        <v>19</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+    </row>
+    <row r="25" spans="1:7" ht="33" customHeight="1">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="3" customHeight="1">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" s="21" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A27" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A7" s="10">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A8" s="10">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A9" s="10">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A10" s="10">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A11" s="10">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A12" s="10">
-        <v>7</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A13" s="10">
-        <v>8</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A14" s="10">
-        <v>9</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A15" s="10">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A16" s="10">
+    </row>
+    <row r="28" spans="1:7" s="17" customFormat="1" ht="27.95" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:7" ht="18.75" customHeight="1">
+      <c r="A29" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A17" s="10">
-        <v>12</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A18" s="10">
-        <v>13</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A19" s="10">
-        <v>14</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A20" s="10">
-        <v>15</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A21" s="10">
-        <v>16</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A22" s="10">
-        <v>17</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A23" s="10">
-        <v>18</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-    </row>
-    <row r="24" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A24" s="10">
-        <v>19</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-    </row>
-    <row r="25" spans="1:7" ht="32.1" customHeight="1">
-      <c r="A25" s="10">
-        <v>20</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="3" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="17"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="27.95" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
     <mergeCell ref="A27:B27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="A4:B4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0.5" top="0" bottom="0.5" header="0" footer="0"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
